--- a/demo_testRes.xlsx
+++ b/demo_testRes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruixiaolee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruixiaolee/Documents/interactiveLUT_SGX_Linux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A0F104-CD96-B04C-BCCA-C8ED412EEA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D89E44B-6929-644F-9DE5-29DDE1FF7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="28240" windowHeight="17440" xr2:uid="{1C1C04B1-ACD7-2C44-99A1-B75FD3069B64}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8 thread</t>
+    <t>2 thread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,6 +705,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,21 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,36 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,45 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B545BC-5786-A045-9E6B-641B6D422BC4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1161,14 +1161,14 @@
       <c r="E1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="28"/>
@@ -1266,22 +1266,22 @@
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="69">
         <v>12</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52">
+      <c r="E8" s="70"/>
+      <c r="F8" s="70">
         <v>14</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70">
         <v>16</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52">
+      <c r="I8" s="70"/>
+      <c r="J8" s="70">
         <v>18</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="44" t="s">
@@ -1431,18 +1431,18 @@
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="69">
         <v>8</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70">
         <v>10</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70">
         <v>12</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="3"/>
       <c r="K17" s="29"/>
     </row>
@@ -1582,18 +1582,18 @@
       <c r="C26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="73">
         <v>4</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46">
+      <c r="E26" s="74"/>
+      <c r="F26" s="74">
         <v>6</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46">
+      <c r="G26" s="74"/>
+      <c r="H26" s="74">
         <v>8</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="3"/>
       <c r="K26" s="29"/>
     </row>
@@ -1724,32 +1724,32 @@
       <c r="B35" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
+      <c r="D35" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="28"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="60">
-        <v>1</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="C36" s="47">
+        <v>1</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1760,11 +1760,11 @@
     <row r="37" spans="1:11">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="60">
+      <c r="C37" s="47">
         <v>2</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1775,11 +1775,11 @@
     <row r="38" spans="1:11">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="60">
+      <c r="C38" s="47">
         <v>3</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1790,11 +1790,11 @@
     <row r="39" spans="1:11">
       <c r="A39" s="28"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="60">
+      <c r="C39" s="47">
         <v>4</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1805,11 +1805,11 @@
     <row r="40" spans="1:11">
       <c r="A40" s="28"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="84">
+      <c r="C40" s="68">
         <v>5</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1820,11 +1820,11 @@
     <row r="41" spans="1:11">
       <c r="A41" s="30"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1838,22 +1838,22 @@
       <c r="C42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="69">
         <v>12</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52">
+      <c r="E42" s="70"/>
+      <c r="F42" s="70">
         <v>14</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52">
+      <c r="G42" s="70"/>
+      <c r="H42" s="70">
         <v>16</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52">
+      <c r="I42" s="70"/>
+      <c r="J42" s="70">
         <v>18</v>
       </c>
-      <c r="K42" s="53"/>
+      <c r="K42" s="71"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="44" t="s">
@@ -2000,46 +2000,46 @@
       <c r="B51" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="79">
         <v>8</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57">
+      <c r="E51" s="80"/>
+      <c r="F51" s="80">
         <v>10</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57">
+      <c r="G51" s="80"/>
+      <c r="H51" s="80">
         <v>12</v>
       </c>
-      <c r="I51" s="58"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="3"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="55" t="s">
+      <c r="D52" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J52" s="3"/>
@@ -2048,90 +2048,90 @@
     <row r="53" spans="1:11">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="60">
-        <v>1</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="61"/>
+      <c r="C53" s="47">
+        <v>1</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="3"/>
       <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="28"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="60">
+      <c r="C54" s="47">
         <v>2</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="63"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="3"/>
       <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="28"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="60">
+      <c r="C55" s="47">
         <v>3</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="63"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="50"/>
       <c r="J55" s="3"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="28"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="60">
+      <c r="C56" s="47">
         <v>4</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="63"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="50"/>
       <c r="J56" s="3"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="60">
+      <c r="C57" s="47">
         <v>5</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
       <c r="J57" s="3"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="28"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="67"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="54"/>
       <c r="J58" s="3"/>
       <c r="K58" s="29"/>
     </row>
@@ -2151,21 +2151,21 @@
     <row r="60" spans="1:11">
       <c r="A60" s="28"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="69">
+      <c r="D60" s="82">
         <v>4</v>
       </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70">
+      <c r="E60" s="83"/>
+      <c r="F60" s="83">
         <v>6</v>
       </c>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70">
+      <c r="G60" s="83"/>
+      <c r="H60" s="83">
         <v>8</v>
       </c>
-      <c r="I60" s="71"/>
+      <c r="I60" s="84"/>
       <c r="J60" s="3"/>
       <c r="K60" s="29"/>
     </row>
@@ -2176,25 +2176,25 @@
       <c r="B61" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="73" t="s">
+      <c r="E61" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="73" t="s">
+      <c r="G61" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="55" t="s">
+      <c r="I61" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J61" s="3"/>
@@ -2203,90 +2203,90 @@
     <row r="62" spans="1:11">
       <c r="A62" s="28"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="74">
-        <v>1</v>
-      </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="75"/>
+      <c r="C62" s="58">
+        <v>1</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="59"/>
       <c r="J62" s="3"/>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="28"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="74">
+      <c r="C63" s="58">
         <v>2</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="3"/>
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="28"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="74">
+      <c r="C64" s="58">
         <v>3</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
       <c r="J64" s="3"/>
       <c r="K64" s="29"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="28"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="74">
+      <c r="C65" s="58">
         <v>4</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
       <c r="J65" s="3"/>
       <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="28"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="74">
+      <c r="C66" s="58">
         <v>5</v>
       </c>
-      <c r="D66" s="77"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
       <c r="J66" s="3"/>
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="1:11" ht="17" thickBot="1">
       <c r="A67" s="35"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="80"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="64"/>
       <c r="J67" s="36"/>
       <c r="K67" s="41"/>
     </row>
@@ -2296,32 +2296,32 @@
       <c r="B69" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="50"/>
+      <c r="D69" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="78"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="28"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="60">
-        <v>1</v>
-      </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="63"/>
+      <c r="C70" s="47">
+        <v>1</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2332,11 +2332,11 @@
     <row r="71" spans="1:11">
       <c r="A71" s="28"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="60">
+      <c r="C71" s="47">
         <v>2</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="63"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2347,11 +2347,11 @@
     <row r="72" spans="1:11">
       <c r="A72" s="28"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="60">
+      <c r="C72" s="47">
         <v>3</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="63"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2362,11 +2362,11 @@
     <row r="73" spans="1:11">
       <c r="A73" s="28"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="60">
+      <c r="C73" s="47">
         <v>4</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="63"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2377,11 +2377,11 @@
     <row r="74" spans="1:11">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="84">
+      <c r="C74" s="68">
         <v>5</v>
       </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2392,11 +2392,11 @@
     <row r="75" spans="1:11">
       <c r="A75" s="30"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2410,22 +2410,22 @@
       <c r="C76" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="69">
         <v>12</v>
       </c>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52">
+      <c r="E76" s="70"/>
+      <c r="F76" s="70">
         <v>14</v>
       </c>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52">
+      <c r="G76" s="70"/>
+      <c r="H76" s="70">
         <v>16</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52">
+      <c r="I76" s="70"/>
+      <c r="J76" s="70">
         <v>18</v>
       </c>
-      <c r="K76" s="53"/>
+      <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="44" t="s">
@@ -2572,46 +2572,46 @@
       <c r="B85" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="56">
+      <c r="D85" s="79">
         <v>8</v>
       </c>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57">
+      <c r="E85" s="80"/>
+      <c r="F85" s="80">
         <v>10</v>
       </c>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57">
+      <c r="G85" s="80"/>
+      <c r="H85" s="80">
         <v>12</v>
       </c>
-      <c r="I85" s="58"/>
+      <c r="I85" s="81"/>
       <c r="J85" s="3"/>
       <c r="K85" s="29"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="28"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="I86" s="55" t="s">
+      <c r="D86" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J86" s="3"/>
@@ -2620,90 +2620,90 @@
     <row r="87" spans="1:11">
       <c r="A87" s="28"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="60">
-        <v>1</v>
-      </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="61"/>
+      <c r="C87" s="47">
+        <v>1</v>
+      </c>
+      <c r="D87" s="46"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="48"/>
       <c r="J87" s="3"/>
       <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="28"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="60">
+      <c r="C88" s="47">
         <v>2</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="63"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="50"/>
       <c r="J88" s="3"/>
       <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="28"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="60">
+      <c r="C89" s="47">
         <v>3</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="63"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="50"/>
       <c r="J89" s="3"/>
       <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="28"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="60">
+      <c r="C90" s="47">
         <v>4</v>
       </c>
-      <c r="D90" s="62"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="63"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="3"/>
       <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="28"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="60">
+      <c r="C91" s="47">
         <v>5</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="65"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="3"/>
       <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="28"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="67"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="54"/>
       <c r="J92" s="3"/>
       <c r="K92" s="29"/>
     </row>
@@ -2723,21 +2723,21 @@
     <row r="94" spans="1:11">
       <c r="A94" s="28"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="69">
+      <c r="D94" s="82">
         <v>4</v>
       </c>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70">
+      <c r="E94" s="83"/>
+      <c r="F94" s="83">
         <v>6</v>
       </c>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70">
+      <c r="G94" s="83"/>
+      <c r="H94" s="83">
         <v>8</v>
       </c>
-      <c r="I94" s="71"/>
+      <c r="I94" s="84"/>
       <c r="J94" s="3"/>
       <c r="K94" s="29"/>
     </row>
@@ -2748,25 +2748,25 @@
       <c r="B95" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="72" t="s">
+      <c r="D95" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="73" t="s">
+      <c r="E95" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="73" t="s">
+      <c r="G95" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I95" s="55" t="s">
+      <c r="I95" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J95" s="3"/>
@@ -2775,95 +2775,114 @@
     <row r="96" spans="1:11">
       <c r="A96" s="28"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="74">
-        <v>1</v>
-      </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="75"/>
+      <c r="C96" s="58">
+        <v>1</v>
+      </c>
+      <c r="D96" s="56"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="59"/>
       <c r="J96" s="3"/>
       <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="28"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="74">
+      <c r="C97" s="58">
         <v>2</v>
       </c>
-      <c r="D97" s="76"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
       <c r="J97" s="3"/>
       <c r="K97" s="29"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="28"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="74">
+      <c r="C98" s="58">
         <v>3</v>
       </c>
-      <c r="D98" s="76"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
-      <c r="I98" s="75"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="3"/>
       <c r="K98" s="29"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="28"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="74">
+      <c r="C99" s="58">
         <v>4</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="3"/>
       <c r="K99" s="29"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="28"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="74">
+      <c r="C100" s="58">
         <v>5</v>
       </c>
-      <c r="D100" s="77"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="3"/>
       <c r="K100" s="29"/>
     </row>
     <row r="101" spans="1:11" ht="17" thickBot="1">
       <c r="A101" s="35"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="79" t="s">
+      <c r="C101" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="79"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="80"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="80"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="36"/>
       <c r="K101" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
@@ -2878,25 +2897,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
